--- a/docs/assets/disciplinas/LOM3113.xlsx
+++ b/docs/assets/disciplinas/LOM3113.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>3577649 - Carlos Angelo Nunes</t>
+  </si>
+  <si>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -481,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,98 +610,119 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3113.xlsx
+++ b/docs/assets/disciplinas/LOM3113.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Essa disciplina faz parte da formação do engenheiro de materiais, contribuindo para gerar competências gerais e específicas.Interrelacionar essa disciplina com outras da grade do curso, como: Pirometalurgia, Processamento de Cerâmicas, entre outras. Desenvolver nos alunos a prática da redação científica, da busca bibliográfica, de informações técnicas e especificar equipamentos.Incentivar os alunos ao aproveitamento racional dos recursos naturais transformando-os em produtos com valor agregado e/ou metais, via processo em fase aquosa e temperaturas amenas, levando em consideração os aspectos ambientais, econômicos e sociais.Incentivar trabalhos em grupo, com apresentação de resultados.</t>
+    <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3577649 - Carlos Angelo Nunes</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1 – Introdução geral, 2 – Análise granulométrica, 3 – Fragmentação (britagem e moagem), 4 - Classificação e Peneiramento Industrial, 5 – Concentração de minérios, 6 - Circuitos de tratamentos de minérios e balanço de massa, 7 – Matérias-Primas mais usadas em hidrometalurgia, 8 – Lixiviação, 9 - Técnicas para purificação e concentração de licores, 10 – Precipitação, 11 - Circuitos de plantas hidrometalúrgicas e balanço de massa. 12 – Hidrometalurgia e reciclagem, 13 – Testes experimentais, 14 – Visitas técnicas em empresas do ramo, 15 – Em todos os itens anteriores serão abordados aspectos sociais, ambientais, legais e econômicos.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1- Introdução geral sobre Tratamento de Minérios e Hidrometalurgia – Conceitos e terminologias aplicados ao tratamento de minérios e hidrometalurgia, 2 – Análise granulométrica – peneiramento e instrumental, tamanho e distribuição de tamanhos de partículas, 3 – Fragmentação – desmonte, britagem e moagem (teorias, métodos e equipamentos), 4 - Classificação e Peneiramento Industrial – fundamentos da classificação, tipos de classificadores, peneiramento, 5 - Concentração de minérios pelas técnicas de:  sedimentação por queda livre e retardada, gravítica, separação magnética e eletrostática, flotação (físico-química de superfícies; flotação em células e em colunas, um estudo de caso, 6 - Circuitos de tratamento de minérios e balanço de massa, 7 - Matérias-primas mais usadas em hidrometalurgia – minérios e concentrados dos principais metais, materiais secundários, produtos da mineração urbana, 8 – Lixiviação - princípios, técnicas e equipamentos, 9 - Técnicas para purificação e concentração de licores, 10 – Precipitação - princípios, métodos e obtenção de compostos e/ou metais, 11 - Circuitos de plantas hidrometalúrgicas industriais, com ênfase nos metais cobre, níquel, zinco, terras raras, nióbio, tântalo, zircônio e háfnio, envolvendo balanço de massa simples, 12 - Hidrometalurgia como solução para reciclagem e seus efeitos econômicos e sociais, 13 - Testes experimentais; 14 – Visitas técnicas em empresas do ramo. 15 -  Em todos os itens anteriores serão abordados aspectos sociais, ambientais, legais e econômicos para ampliar competências nos alunos.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Serão realizadas duas provas escritas (P1 e P2) com peso 1. No mínimo, um relatório a partir de trabalhos em grupo, com peso 1 (NR) e avaliação individual realizada durante todo o curso (AI), com peso 1.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada pela equação: NF = 0,5[(P1 + P2)/2] + 0,3NR + 0,2AI.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, inclusive com cobrança das competências desenvolvidas, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1 - Tratamento de Minérios, 5ª Ed., CETEM_MCT, Rio de Janeiro, 2010, Adão Benvindo da Luz, João Alves Sampaio e Salvador L. M. de Almeida, 2 - Dispersão e empacotamento de partículas, Fazendo Arte Editorial, Ivone R. de Oliveira e co-autores, 2.000, 3 - Teoria e prática de tratamento e recuperação de minérios por sistemas gravíticos, Cristoni, S. Signus - São Paulo, 1986, 4 - Teoria e Prática do Tratamento de Minérios – 3ª Edição, Vol. 1-SIGNUS, 5 - Introdução ao Tratamento de Minérios, George Eduardo Sales Valadao, Editora: UFMG, 6 - Principles of extractive metallurgy, Habashi, F., Laval University, vol. 1, Quebec City, Canadá, 1970, 7 - Principles of extractive metallurgy, Habashi, F., Laval University, vol. 2, Quebec City, Canadá, 1970, 8 - Solvent extraction principles and applications to process metal, Ltcey, G.M. &amp; Ashbrook, A.W., Part I – Elsevier, 1984, 9 - Ion exchange resins, Robert Kunin, Robert E. Krieger Publishing Company Malabar, Florida, 1958, 10 – artigos  especializados em Tratamento de Minérios e Hidrometalurgia.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3113.xlsx
+++ b/docs/assets/disciplinas/LOM3113.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Essa disciplina faz parte da formação do engenheiro de materiais, contribuindo para gerar competências gerais e específicas.Interrelacionar essa disciplina com outras da grade do curso, como: Pirometalurgia, Processamento de Cerâmicas, entre outras. Desenvolver nos alunos a prática da redação científica, da busca bibliográfica, de informações técnicas e especificar equipamentos.Incentivar os alunos ao aproveitamento racional dos recursos naturais transformando-os em produtos com valor agregado e/ou metais, via processo em fase aquosa e temperaturas amenas, levando em consideração os aspectos ambientais, econômicos e sociais.Incentivar trabalhos em grupo, com apresentação de resultados.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1 – Introdução geral, 2 – Análise granulométrica, 3 – Fragmentação (britagem e moagem), 4 - Classificação e Peneiramento Industrial, 5 – Concentração de minérios, 6 - Circuitos de tratamentos de minérios e balanço de massa, 7 – Matérias-Primas mais usadas em hidrometalurgia, 8 – Lixiviação, 9 - Técnicas para purificação e concentração de licores, 10 – Precipitação, 11 - Circuitos de plantas hidrometalúrgicas e balanço de massa. 12 – Hidrometalurgia e reciclagem, 13 – Testes experimentais, 14 – Visitas técnicas em empresas do ramo, 15 – Em todos os itens anteriores serão abordados aspectos sociais, ambientais, legais e econômicos.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1- Introdução geral sobre Tratamento de Minérios e Hidrometalurgia – Conceitos e terminologias aplicados ao tratamento de minérios e hidrometalurgia, 2 – Análise granulométrica – peneiramento e instrumental, tamanho e distribuição de tamanhos de partículas, 3 – Fragmentação – desmonte, britagem e moagem (teorias, métodos e equipamentos), 4 - Classificação e Peneiramento Industrial – fundamentos da classificação, tipos de classificadores, peneiramento, 5 - Concentração de minérios pelas técnicas de:  sedimentação por queda livre e retardada, gravítica, separação magnética e eletrostática, flotação (físico-química de superfícies; flotação em células e em colunas, um estudo de caso, 6 - Circuitos de tratamento de minérios e balanço de massa, 7 - Matérias-primas mais usadas em hidrometalurgia – minérios e concentrados dos principais metais, materiais secundários, produtos da mineração urbana, 8 – Lixiviação - princípios, técnicas e equipamentos, 9 - Técnicas para purificação e concentração de licores, 10 – Precipitação - princípios, métodos e obtenção de compostos e/ou metais, 11 - Circuitos de plantas hidrometalúrgicas industriais, com ênfase nos metais cobre, níquel, zinco, terras raras, nióbio, tântalo, zircônio e háfnio, envolvendo balanço de massa simples, 12 - Hidrometalurgia como solução para reciclagem e seus efeitos econômicos e sociais, 13 - Testes experimentais; 14 – Visitas técnicas em empresas do ramo. 15 -  Em todos os itens anteriores serão abordados aspectos sociais, ambientais, legais e econômicos para ampliar competências nos alunos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1922320 - Sebastiao Ribeiro</t>
+    <t>Serão realizadas duas provas escritas (P1 e P2) com peso 1. No mínimo, um relatório a partir de trabalhos em grupo, com peso 1 (NR) e avaliação individual realizada durante todo o curso (AI), com peso 1.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão realizadas duas provas escritas (P1 e P2) com peso 1. No mínimo, um relatório a partir de trabalhos em grupo, com peso 1 (NR) e avaliação individual realizada durante todo o curso (AI), com peso 1.</t>
+    <t>A nota final (NF) será calculada pela equação: NF = 0,5[(P1 + P2)/2] + 0,3NR + 0,2AI.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final (NF) será calculada pela equação: NF = 0,5[(P1 + P2)/2] + 0,3NR + 0,2AI.</t>
+    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, inclusive com cobrança das competências desenvolvidas, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, inclusive com cobrança das competências desenvolvidas, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
+    <t>1 - Tratamento de Minérios, 5ª Ed., CETEM_MCT, Rio de Janeiro, 2010, Adão Benvindo da Luz, João Alves Sampaio e Salvador L. M. de Almeida, 2 - Dispersão e empacotamento de partículas, Fazendo Arte Editorial, Ivone R. de Oliveira e co-autores, 2.000, 3 - Teoria e prática de tratamento e recuperação de minérios por sistemas gravíticos, Cristoni, S. Signus - São Paulo, 1986, 4 - Teoria e Prática do Tratamento de Minérios – 3ª Edição, Vol. 1-SIGNUS, 5 - Introdução ao Tratamento de Minérios, George Eduardo Sales Valadao, Editora: UFMG, 6 - Principles of extractive metallurgy, Habashi, F., Laval University, vol. 1, Quebec City, Canadá, 1970, 7 - Principles of extractive metallurgy, Habashi, F., Laval University, vol. 2, Quebec City, Canadá, 1970, 8 - Solvent extraction principles and applications to process metal, Ltcey, G.M. &amp; Ashbrook, A.W., Part I – Elsevier, 1984, 9 - Ion exchange resins, Robert Kunin, Robert E. Krieger Publishing Company Malabar, Florida, 1958, 10 – artigos  especializados em Tratamento de Minérios e Hidrometalurgia.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
